--- a/public/template_barang.xlsx
+++ b/public/template_barang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C476E34-5A99-41E1-B0A1-0895DBCDA5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3AAD49-9109-4FC1-B692-3D1FCCEF848F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C76E6897-7C4C-4549-ACC8-B4954AA2C52A}"/>
   </bookViews>
@@ -85,8 +85,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,8 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +442,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,19 +455,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
